--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-17_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-17_end.xlsx
@@ -2800,15 +2800,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Deathless Black Snake”"]  Well done.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Deathless Black Snake”"]  You’ve done well...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Deathless Black Snake”"]  What is this? The dragonslaying sword couldn’t cut me, the sword of the Lord of Fiends’ couldn’t pierce me, so why is... my Arts... My control is fading away?
+    <t xml:space="preserve">[name="'Deathless Black Snake'"]  Well done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Deathless Black Snake'"]  You’ve done well...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Deathless Black Snake'"]  What is this? The dragonslaying sword couldn’t cut me, the sword of the Lord of Fiends’ couldn’t pierce me, so why is... my Arts... My control is fading away?
 </t>
   </si>
   <si>
@@ -2916,7 +2916,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] Have you ever seen someone cut his throat in front of you, “sister”?
+    <t xml:space="preserve">[name="Talulah?"] Have you ever seen someone cut his throat in front of you, 'sister'?
 </t>
   </si>
   <si>
@@ -2956,11 +2956,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] I am merely “educating” her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah?"]  My failure stems from my enduring persistence. When you encounter a person without persistence, you will come to realize how much is contained within the word “suffering”.
+    <t xml:space="preserve">[name="Talulah?"] I am merely 'educating' her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah?"]  My failure stems from my enduring persistence. When you encounter a person without persistence, you will come to realize how much is contained within the word 'suffering'.
 </t>
   </si>
   <si>
@@ -2972,7 +2972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] Even I myself am just part of the road she steps upon. If I had succeeded in killing you, “sister”... It’d be a lot simpler.
+    <t xml:space="preserve">[name="Talulah?"] Even I myself am just part of the road she steps upon. If I had succeeded in killing you, 'sister'... It’d be a lot simpler.
 </t>
   </si>
   <si>
@@ -2988,7 +2988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  You have the nerve to say that?! After sacrificing your own “daughter”? He’s nothing like you! 
+    <t xml:space="preserve">[name="Ch’en"]  You have the nerve to say that?! After sacrificing your own 'daughter'? He’s nothing like you! 
 </t>
   </si>
   <si>
@@ -3072,7 +3072,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">This is definitely not the first time the white-haired Draco attempted to resist her “father”.
+    <t xml:space="preserve">This is definitely not the first time the white-haired Draco attempted to resist her 'father'.
 </t>
   </si>
   <si>
@@ -3116,7 +3116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Subtitle(text="The different between me and you is that your “love”... is just sacrifice.", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+    <t xml:space="preserve">[Subtitle(text="The different between me and you is that your 'love'... is just sacrifice.", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
 </t>
   </si>
   <si>
@@ -3160,7 +3160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  "I taught you all of this?" No, Kashchey. This world, that snowfield, those people chasing after the sunlight... You will never understand the things they taught me.
+    <t xml:space="preserve">[name="Talulah"]  'I taught you all of this?' No, Kashchey. This world, that snowfield, those people chasing after the sunlight... You will never understand the things they taught me.
 </t>
   </si>
   <si>
@@ -3260,7 +3260,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"]  "I will be there even at the edge of the world." 
+    <t xml:space="preserve">[name="Talulah?"]  'I will be there even at the edge of the world.' 
 </t>
   </si>
   <si>
@@ -3492,7 +3492,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  What the hell does it mean "insufficient clearance"?
+    <t xml:space="preserve">[name="W"]  What the hell does it mean 'insufficient clearance'?
 </t>
   </si>
   <si>
@@ -3920,7 +3920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  “Good food, great wine and amazing scenery; Pretty women, good manners and great company”. Isn’t it like those weird novels you used to read?
+    <t xml:space="preserve">[name="Talulah"]  'Good food, great wine and amazing scenery; Pretty women, good manners and great company'. Isn’t it like those weird novels you used to read?
 </t>
   </si>
   <si>
@@ -4580,7 +4580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아미야"]  체, 첸 씨? 그런 말은…… 피디아 족 오퍼레이터들한테 하시면 안 돼요!
+    <t xml:space="preserve">[name="아미야"]  체, 첸 씨? 그런 말은…… 피디아 족 오퍼레이터들한텐 하시면 안 돼요!
 </t>
   </si>
   <si>
@@ -4688,7 +4688,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  아, 참! 그리고…… 날 안 믿는다고 해도 상관없어. 나도 너 안 믿거든. 하지만 테레시아의 후계자가 이런 순간에 멍청한 짓을 하진 않을 거라고 생각하니까.
+    <t xml:space="preserve">[name="W"]  아, 참! 그리고…… 날 안 믿는다고 해도 상관없어. 나도 너 안 믿거든. 하지만 테레시아의 후계자가 이런 순간에 멍청한 짓을 하진 않을 거라고 생각하니까……
 </t>
   </si>
   <si>
@@ -4832,7 +4832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  이번 한 번만 부탁해!
+    <t xml:space="preserve">[name="W"]  이번 한 번만 부탁할게!
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-17_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-17_end.xlsx
@@ -2804,19 +2804,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="'Deathless Black Snake'"]  You’ve done well...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="'Deathless Black Snake'"]  What is this? The dragonslaying sword couldn’t cut me, the sword of the Lord of Fiends’ couldn’t pierce me, so why is... my Arts... My control is fading away?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The flames gradually die down. Even though the heat remains harsh enough to kill, it’s far less brutal than several minutes ago.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ch'en’s bloodstained hands don’t stop trembling. She’s barely blinking.
+    <t xml:space="preserve">[name="'Deathless Black Snake'"]  You've done well...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Deathless Black Snake'"]  What is this? The dragonslaying sword couldn't cut me, the sword of the Lord of Fiends' couldn't pierce me, so why is... my Arts... My control is fading away?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The flames gradually die down. Even though the heat remains harsh enough to kill, it's far less brutal than several minutes ago.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ch'en's bloodstained hands don't stop trembling. She's barely blinking.
 </t>
   </si>
   <si>
@@ -2840,15 +2840,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  ...Ugh.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Her Arts have been dispelled... We can talk again.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Don’t be rash, Amiya. We’re also...
+    <t xml:space="preserve">[name="Ch'en"]  ...Ugh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Her Arts have been dispelled... We can talk again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Don't be rash, Amiya. We're also...
 </t>
   </si>
   <si>
@@ -2860,7 +2860,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Who the hell are you mocking?
+    <t xml:space="preserve">[name="Ch'en"]  Who the hell are you mocking?
 </t>
   </si>
   <si>
@@ -2888,15 +2888,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  You’re not wrong, Kashchey.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  If she was completely unwilling... you wouldn’t have been able to do those things.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ......
+    <t xml:space="preserve">[name="Amiya"]  You're not wrong, Kashchey.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  If she was completely unwilling... you wouldn't have been able to do those things.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ......
 </t>
   </si>
   <si>
@@ -2904,15 +2904,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  You!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Are you planning on harming Miss Talulah’s body?! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  What are you doing?! Put that sword down! 
+    <t xml:space="preserve">[name="Ch'en"]  You!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Are you planning on harming Miss Talulah's body?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  What are you doing?! Put that sword down! 
 </t>
   </si>
   <si>
@@ -2920,7 +2920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] Not even a Draco’s body can withstand the sharpness of this sword.
+    <t xml:space="preserve">[name="Talulah?"] Not even a Draco's body can withstand the sharpness of this sword.
 </t>
   </si>
   <si>
@@ -2932,7 +2932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Don’t even think about it!
+    <t xml:space="preserve">[name="Ch'en"]  Don't even think about it!
 </t>
   </si>
   <si>
@@ -2948,11 +2948,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Kashchey! Everything you’ve done to Talulah is unforgivable!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Regardless if you’re just her shadow, an obstacle to her awakening, or another side of her... No matter how many wrongs Talulah has committed, you’re definitely not in the right.
+    <t xml:space="preserve">[name="Amiya"]  Kashchey! Everything you've done to Talulah is unforgivable!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Regardless if you're just her shadow, an obstacle to her awakening, or another side of her... No matter how many wrongs Talulah has committed, you're definitely not in the right.
 </t>
   </si>
   <si>
@@ -2968,11 +2968,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] These poor, pitiful Infected that should have exerted their value... They’re all wasted now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah?"] Even I myself am just part of the road she steps upon. If I had succeeded in killing you, 'sister'... It’d be a lot simpler.
+    <t xml:space="preserve">[name="Talulah?"] These poor, pitiful Infected that should have exerted their value... They're all wasted now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah?"] Even I myself am just part of the road she steps upon. If I had succeeded in killing you, 'sister'... It'd be a lot simpler.
 </t>
   </si>
   <si>
@@ -2988,11 +2988,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  You have the nerve to say that?! After sacrificing your own 'daughter'? He’s nothing like you! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  N-No... You mustn’t——
+    <t xml:space="preserve">[name="Ch'en"]  You have the nerve to say that?! After sacrificing your own 'daughter'? He's nothing like you! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  N-No... You mustn't——
 </t>
   </si>
   <si>
@@ -3004,7 +3004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  And now, you can’t do it anymore. We’ve aroused her memories and caused them to echo within her mind for long enough. She can no longer bear it.
+    <t xml:space="preserve">[name="Amiya"]  And now, you can't do it anymore. We've aroused her memories and caused them to echo within her mind for long enough. She can no longer bear it.
 </t>
   </si>
   <si>
@@ -3036,35 +3036,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I know that you weren’t seeking achievement nor glory when you began fighting for the Infected... It’s fine even if you failed! You did so because you believed it was the correct thing to do!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  That’s why, no matter what kind of people we are facing, no matter what world we face... We will always strive to move forward, never stopping until we can finally rest!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Aren’t you that kind of person... Aren’t the people you know all like that?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Talulah, are you content being a puppet of this snake?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Will you let it end like this? Is this really the Talulah I know?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Are you really worthy of being called the leader of the Infected?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Subtitle(text="... I’m not worthy.", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Hng!
+    <t xml:space="preserve">[name="Amiya"]  I know that you weren't seeking achievement nor glory when you began fighting for the Infected... It's fine even if you failed! You did so because you believed it was the correct thing to do!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  That's why, no matter what kind of people we are facing, no matter what world we face... We will always strive to move forward, never stopping until we can finally rest!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Aren't you that kind of person... Aren't the people you know all like that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Talulah, are you content being a puppet of this snake?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Will you let it end like this? Is this really the Talulah I know?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Are you really worthy of being called the leader of the Infected?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="... I'm not worthy.", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Hng!
 </t>
   </si>
   <si>
@@ -3100,7 +3100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Subtitle(text="I’ve failed. I’ve fallen into your trap. What’s worse is that it was all of my own doing.", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+    <t xml:space="preserve">[Subtitle(text="I've failed. I've fallen into your trap. What's worse is that it was all of my own doing.", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
 </t>
   </si>
   <si>
@@ -3128,15 +3128,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Subtitle(text="What right have I to mock my Infected kin who’re struggling to survive?", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Enough. You can stop here. I’m no longer you, Kashchey. I’m different from you... I’m not another Black Snake.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I might be a Kashchey... But I’m definitely not another Black Snake.
+    <t xml:space="preserve">[Subtitle(text="What right have I to mock my Infected kin who're struggling to survive?", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Enough. You can stop here. I'm no longer you, Kashchey. I'm different from you... I'm not another Black Snake.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I might be a Kashchey... But I'm definitely not another Black Snake.
 </t>
   </si>
   <si>
@@ -3144,15 +3144,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  ...My hatred has killed far too many. Don’t even think about using hatred to incite me any further.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Heh. Kashchey, that hatred and history you’ve carried with you for countless years... It will all end with me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  You may be the seed, the vines, the towering tree... It doesn’t matter, Kashchey.
+    <t xml:space="preserve">[name="Talulah"]  ...My hatred has killed far too many. Don't even think about using hatred to incite me any further.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Heh. Kashchey, that hatred and history you've carried with you for countless years... It will all end with me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You may be the seed, the vines, the towering tree... It doesn't matter, Kashchey.
 </t>
   </si>
   <si>
@@ -3184,7 +3184,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Are you angry not because your plans have failed, but because you’re not able to control her anymore?
+    <t xml:space="preserve">[name="Ch'en"]  Are you angry not because your plans have failed, but because you're not able to control her anymore?
 </t>
   </si>
   <si>
@@ -3192,27 +3192,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Of course, Kashchey... How could a daughter of Draco be as dark as a worm like you!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  M-Miss Ch’en? You mustn't let the Phidian operators hear that!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Ah. I once had a snake boss who was incapable of telling a lie... never mind.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Kashchey, there’s only one reason you failed. You’re not worthy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You’re not worthy of possessing my sister’s body. You’re not worthy of starting a war. In fact, you’re not worthy of the experience you’ve talked so much about.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  So get the hell out of Talulah’s body right now!
+    <t xml:space="preserve">[name="Ch'en"]  Of course, Kashchey... How could a daughter of Draco be as dark as a worm like you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  M-Miss Ch'en? You mustn't let the Phidian operators hear that!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Ah. I once had a snake boss who was incapable of telling a lie... never mind.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Kashchey, there's only one reason you failed. You're not worthy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You're not worthy of possessing my sister's body. You're not worthy of starting a war. In fact, you're not worthy of the experience you've talked so much about.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  So get the hell out of Talulah's body right now!
 </t>
   </si>
   <si>
@@ -3228,11 +3228,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  ...Could it be she’s not your...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah?"] You’re still tracing my emotions? Mongrel Lord of Fiends... Even if it’s the truth, you don’t have the right to speak it!
+    <t xml:space="preserve">[name="Amiya"]  ...Could it be she's not your...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah?"] You're still tracing my emotions? Mongrel Lord of Fiends... Even if it's the truth, you don't have the right to speak it!
 </t>
   </si>
   <si>
@@ -3240,7 +3240,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"]  Hmph. You’re not wrong, however.
+    <t xml:space="preserve">[name="Talulah?"]  Hmph. You're not wrong, however.
 </t>
   </si>
   <si>
@@ -3252,11 +3252,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"]  I admit defeat. Go ahead and celebrate your victory to your hearts’ content.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah?"]  It doesn’t matter... Nothing matters anymore. Remember this, Talulah.
+    <t xml:space="preserve">[name="Talulah?"]  I admit defeat. Go ahead and celebrate your victory to your hearts' content.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah?"]  It doesn't matter... Nothing matters anymore. Remember this, Talulah.
 </t>
   </si>
   <si>
@@ -3272,15 +3272,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Don’t move!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  We cannot be sure if this... if this is just another trick of that old snake. I don’t know if Talulah really managed to purge him from her mind, or if she’s really feeling regret over her actions...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Besides, it’s not over... We still have to stop this city.
+    <t xml:space="preserve">[name="Ch'en"]  Don't move!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  We cannot be sure if this... if this is just another trick of that old snake. I don't know if Talulah really managed to purge him from her mind, or if she's really feeling regret over her actions...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Besides, it's not over... We still have to stop this city.
 </t>
   </si>
   <si>
@@ -3292,11 +3292,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  The key! Hurry, before it's too late! We’re all dead meat if this giant hunk of scrap doesn’t stop soon!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  I... I cannot trust an enemy. An enemy who’s killed my Rhodes Island friends.
+    <t xml:space="preserve">[name="W"]  The key! Hurry, before it's too late! We're all dead meat if this giant hunk of scrap doesn't stop soon!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I... I cannot trust an enemy. An enemy who's killed my Rhodes Island friends.
 </t>
   </si>
   <si>
@@ -3304,7 +3304,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Besides... It doesn’t really matter if you don’t trust me, rabbit. I don’t trust you either. But I don’t think Theresa’s successor would make a stupid mistake at a time like this.
+    <t xml:space="preserve">[name="W"]  Besides... It doesn't really matter if you don't trust me, rabbit. I don't trust you either. But I don't think Theresa's successor would make a stupid mistake at a time like this.
 </t>
   </si>
   <si>
@@ -3312,7 +3312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Just hand it over. You can kill me after the city stops moving. Not that I’d just stand there and let you do it, but I’ll give you a shot.
+    <t xml:space="preserve">[name="W"]  Just hand it over. You can kill me after the city stops moving. Not that I'd just stand there and let you do it, but I'll give you a shot.
 </t>
   </si>
   <si>
@@ -3320,15 +3320,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  I can’t trust a murderer either.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Then you probably don’t trust yourself, hmm?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  True enough.
+    <t xml:space="preserve">[name="Ch'en"]  I can't trust a murderer either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Then you probably don't trust yourself, hmm?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  True enough.
 </t>
   </si>
   <si>
@@ -3348,11 +3348,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Amiya, to me, dreams are something far out of reach. Ahh, it’s so tiring dealing with so many matters each and every day.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">However, I do have a dream like that. This dream makes me think that no matter how much effort I put in here, it’s all worth it.
+    <t xml:space="preserve">Amiya, to me, dreams are something far out of reach. Ahh, it's so tiring dealing with so many matters each and every day.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">However, I do have a dream like that. This dream makes me think that no matter how much effort I put in here, it's all worth it.
 </t>
   </si>
   <si>
@@ -3364,7 +3364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">You might still throw tantrums knocking over furniture or being picky over dinner. Don’t give Kal'tsit a hard time, she doesn’t mean it. I know, child.
+    <t xml:space="preserve">You might still throw tantrums knocking over furniture or being picky over dinner. Don't give Kal'tsit a hard time, she doesn't mean it. I know, child.
 </t>
   </si>
   <si>
@@ -3380,7 +3380,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It’s fine, it’s fine. It’s fine, Amiya. I’m here.
+    <t xml:space="preserve">It's fine, it's fine. It's fine, Amiya. I'm here.
 </t>
   </si>
   <si>
@@ -3388,7 +3388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Sometimes, it’s the only reason for us to continue living. Because... life continues after we die, for no reason other than that others live on. That is the reason that helps us to move forward.
+    <t xml:space="preserve">Sometimes, it's the only reason for us to continue living. Because... life continues after we die, for no reason other than that others live on. That is the reason that helps us to move forward.
 </t>
   </si>
   <si>
@@ -3412,15 +3412,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">That’s why, I have a very distant dream.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I wish for the people of this world to never again cry tears of separation and loss. I don’t want our night skies to be filled with broken hearts and emptiness.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perhaps, one day... We’ll be able to let everyone on this vast land fall into peaceful slumber.
+    <t xml:space="preserve">That's why, I have a very distant dream.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wish for the people of this world to never again cry tears of separation and loss. I don't want our night skies to be filled with broken hearts and emptiness.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhaps, one day... We'll be able to let everyone on this vast land fall into peaceful slumber.
 </t>
   </si>
   <si>
@@ -3444,7 +3444,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Let me do something for the Speaker, just this once! Let me help the ones who aren’t dead yet!
+    <t xml:space="preserve">[name="W"]  Let me do something for the Speaker, just this once! Let me help the ones who aren't dead yet!
 </t>
   </si>
   <si>
@@ -3452,11 +3452,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The black longsword in Amiya’s hand turns to dust that scatters in the wind.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  I know. W, I’ll trust you just this once.
+    <t xml:space="preserve">The black longsword in Amiya's hand turns to dust that scatters in the wind.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I know. W, I'll trust you just this once.
 </t>
   </si>
   <si>
@@ -3464,11 +3464,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  It’s up to you, W.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Cautus girl pushes a box into the Sarkaz’s hands.
+    <t xml:space="preserve">[name="Amiya"]  It's up to you, W.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cautus girl pushes a box into the Sarkaz's hands.
 </t>
   </si>
   <si>
@@ -3476,7 +3476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Old man, I know your last wish. I’ll stop this goddamned city right now...
+    <t xml:space="preserve">[name="W"]  Old man, I know your last wish. I'll stop this goddamned city right now...
 </t>
   </si>
   <si>
@@ -3500,7 +3500,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Listen to me. This thing might be a key... but... it’s useless. It doesn’t have clearance. If even the mayor doesn't have clearance, who the hell can stop this machine?! 
+    <t xml:space="preserve">[name="W"]  Listen to me. This thing might be a key... but... it's useless. It doesn't have clearance. If even the mayor doesn't have clearance, who the hell can stop this machine?! 
 </t>
   </si>
   <si>
@@ -3512,7 +3512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  ...No. That can’t be right. Misha...?! 
+    <t xml:space="preserve">[name="W"]  ...No. That can't be right. Misha...?! 
 </t>
   </si>
   <si>
@@ -3552,7 +3552,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  The real you... you’re pretty straightforward. I might even like you.
+    <t xml:space="preserve">[name="W"]  The real you... you're pretty straightforward. I might even like you.
 </t>
   </si>
   <si>
@@ -3560,7 +3560,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Just press it onto the control panel, you’ll know what to do.
+    <t xml:space="preserve">[name="Talulah"]  Just press it onto the control panel, you'll know what to do.
 </t>
   </si>
   <si>
@@ -3568,23 +3568,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Hold on tight, Amiya. I don’t know how hard this brake goes!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Let’s see, what was it... Umm, (Ursine) To feed the people?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Yeah... that’s it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Where did you get that key from?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Heh... It was hanging on the wall in the brake control room. Anyone can use it as long as you know the command. It’s just nobody thought of it...
+    <t xml:space="preserve">[name="W"]  Hold on tight, Amiya. I don't know how hard this brake goes!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Let's see, what was it... Umm, (Ursine) To feed the people?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Yeah... that's it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Where did you get that key from?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Heh... It was hanging on the wall in the brake control room. Anyone can use it as long as you know the command. It's just nobody thought of it...
 </t>
   </si>
   <si>
@@ -3608,11 +3608,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Finally, the Chernobog core city stops outside the range of Lungmen’s guns.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  That wasn’t as rough as I thought it would be. Good thing we stopped it in time.
+    <t xml:space="preserve">Finally, the Chernobog core city stops outside the range of Lungmen's guns.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  That wasn't as rough as I thought it would be. Good thing we stopped it in time.
 </t>
   </si>
   <si>
@@ -3620,7 +3620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  ...Dragon lady, I can’t believe you didn’t destroy the key.
+    <t xml:space="preserve">[name="W"]  ...Dragon lady, I can't believe you didn't destroy the key.
 </t>
   </si>
   <si>
@@ -3632,131 +3632,131 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  ——She didn’t want to.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Kashchey must have tried every possibility at tempting her into destroying that key, but he couldn’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Because... There must have been that little bit of conscience that he couldn’t shake or erase with his Arts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Or maybe she never considered it. Even if she thought to destroy everyone in a fit of rage, I don’t think she would’ve ever gone through with it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  At the very least, she wanted the Infected to be able to go on living.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ...Stand up.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Come on. You’ve disappointed everyone enough already. Stand up, Talulah!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Stand up, Talulah!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  What is this? Didn’t you say it yourself? That you understood best whether you were being genuine or not, whether your words were coming from your heart or if you were just borrowing someone else’s mouth.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You said this corrupt world was your enemy. Do you understand what that means, Talulah?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  No, you should know better than me!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  For the Infected——No, to break down the high wall that separates the Infected and non-Infected, to put an end to the ugly murders and wicked slavery.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You who have fought alongside the Infected for so many years would have to know better than me!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You know we can’t win against the world.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You don’t have a ghost of a chance... They will oppress you, slander you, drown you, abandon you, deceive you!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  As long as you dare to stand out, they will drag you into the filthiest places and use the foulest methods to deal with you! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You will be knocked down if you make even a single mistake, yet your enemies are endless. You choose to move forward, to oppose them, to devote your life, but your enemies are immortal.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  There’s only one possible ending. You will be knocked down, you will be destroyed, even if you took just a single misstep!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  A single misstep would become an excuse for them to hurt you... a perfectly justifiable one.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  They would pounce onto you like beasts on the scent of blood, tearing at your flesh, ripping at your tongue and eyes as they howl insults at your dignity!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  But no one is perfect. You will be knocked down. You will fall to the ground.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ...Even so, you cannot. You understand better than me that you cannot fall, Talulah...!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Even if they are all staring at you! Even if they are all aiming at your weak points, even if they are planning to tear away your facade.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Even if they want to drag you out to laugh and mock at, to insult you and call you an overambitious, immature fool...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You cannot fall.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ...We’ve grown completely unrecognizable to each other in the time we spent living in different cities. The past will not return.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  We both have our own undertakings.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Right now, mine is still incomplete... so is yours.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  The road is still long.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Because we still have things we need to do. It will be so, until the day we are done.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You should understand better than me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Talulah, your road is just as long.
+    <t xml:space="preserve">[name="Ch'en"]  ——She didn't want to.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Kashchey must have tried every possibility at tempting her into destroying that key, but he couldn't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Because... There must have been that little bit of conscience that he couldn't shake or erase with his Arts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Or maybe she never considered it. Even if she thought to destroy everyone in a fit of rage, I don't think she would've ever gone through with it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  At the very least, she wanted the Infected to be able to go on living.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ...Stand up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Come on. You've disappointed everyone enough already. Stand up, Talulah!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Stand up, Talulah!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  What is this? Didn't you say it yourself? That you understood best whether you were being genuine or not, whether your words were coming from your heart or if you were just borrowing someone else's mouth.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You said this corrupt world was your enemy. Do you understand what that means, Talulah?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  No, you should know better than me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  For the Infected——No, to break down the high wall that separates the Infected and non-Infected, to put an end to the ugly murders and wicked slavery.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You who have fought alongside the Infected for so many years would have to know better than me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You know we can't win against the world.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You don't have a ghost of a chance... They will oppress you, slander you, drown you, abandon you, deceive you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  As long as you dare to stand out, they will drag you into the filthiest places and use the foulest methods to deal with you! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You will be knocked down if you make even a single mistake, yet your enemies are endless. You choose to move forward, to oppose them, to devote your life, but your enemies are immortal.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  There's only one possible ending. You will be knocked down, you will be destroyed, even if you took just a single misstep!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  A single misstep would become an excuse for them to hurt you... a perfectly justifiable one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  They would pounce onto you like beasts on the scent of blood, tearing at your flesh, ripping at your tongue and eyes as they howl insults at your dignity!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  But no one is perfect. You will be knocked down. You will fall to the ground.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ...Even so, you cannot. You understand better than me that you cannot fall, Talulah...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Even if they are all staring at you! Even if they are all aiming at your weak points, even if they are planning to tear away your facade.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Even if they want to drag you out to laugh and mock at, to insult you and call you an overambitious, immature fool...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You cannot fall.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ...We've grown completely unrecognizable to each other in the time we spent living in different cities. The past will not return.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  We both have our own undertakings.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Right now, mine is still incomplete... so is yours.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  The road is still long.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Because we still have things we need to do. It will be so, until the day we are done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You should understand better than me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Talulah, your road is just as long.
 </t>
   </si>
   <si>
@@ -3784,15 +3784,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Alina should’ve been here to see this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You’re finally willing to talk.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ——Before that, I need to arrest you.
+    <t xml:space="preserve">[name="Talulah"]  Alina should've been here to see this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You're finally willing to talk.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ——Before that, I need to arrest you.
 </t>
   </si>
   <si>
@@ -3800,19 +3800,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  For now, no one. Ursus and Lungmen... do not have the authority to judge you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I am not yet so pitiful that I would need my sister’s protection as I struggle in shame.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  That’s not it, Talulah. Right now, there isn’t a place in the world just and capable enough to judge you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  There isn’t even a place capable of judging the Infected.
+    <t xml:space="preserve">[name="Ch'en"]  For now, no one. Ursus and Lungmen... do not have the authority to judge you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I am not yet so pitiful that I would need my sister's protection as I struggle in shame.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  That's not it, Talulah. Right now, there isn't a place in the world just and capable enough to judge you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  There isn't even a place capable of judging the Infected.
 </t>
   </si>
   <si>
@@ -3824,7 +3824,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  That’s not an ideal. That’s my job.
+    <t xml:space="preserve">[name="Ch'en"]  That's not an ideal. That's my job.
 </t>
   </si>
   <si>
@@ -3832,39 +3832,39 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Long time no see, sister.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Looks like I saved you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I won’t just give up without a fight. Even now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I don’t dare to die yet.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You can... make amends.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Nothing I can do will make up for it. In the course of a single winter, I’ve destroyed countless people. I am in no position to make amends.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  It’s just... I can’t die yet.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I can’t do that. It’s all over if I die. If I die, that means they’ve won. That means the names that only I remember will die along with me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You will continue living?
+    <t xml:space="preserve">[name="Ch'en"]  Long time no see, sister.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Looks like I saved you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I won't just give up without a fight. Even now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I don't dare to die yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You can... make amends.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Nothing I can do will make up for it. In the course of a single winter, I've destroyed countless people. I am in no position to make amends.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It's just... I can't die yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I can't do that. It's all over if I die. If I die, that means they've won. That means the names that only I remember will die along with me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You will continue living?
 </t>
   </si>
   <si>
@@ -3872,11 +3872,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Perhaps I don’t deserve to. However, I don’t deserve to die here either. I don’t deserve such an easy death.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  ——The world will never again be as it was. What’s happened has happened. What hasn’t happened yet will continue to happen. The falling rain will wet the earth, but the dead will not return.  
+    <t xml:space="preserve">[name="Talulah"]  Perhaps I don't deserve to. However, I don't deserve to die here either. I don't deserve such an easy death.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ——The world will never again be as it was. What's happened has happened. What hasn't happened yet will continue to happen. The falling rain will wet the earth, but the dead will not return.  
 </t>
   </si>
   <si>
@@ -3884,55 +3884,55 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  When we were young, we once played a game. Face, 3 points. Chest, 5 points. Waist, 2 points.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I don’t know why Wei Yenwu taught us that game. I think it’s useful, though.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  It’s because I was bullied by the other kids in school.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You were protecting Beatrix. So you got beaten up badly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  You weren’t the one who did it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I can subdue you in two moves now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  ...Just try it. You’ve become very competitive.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Put the sword down. You look silly holding it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Let’s all do that, then. By the way, are you using that Chi Xiao to fulfil your dream of being an adventurer?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  'Good food, great wine and amazing scenery; Pretty women, good manners and great company'. Isn’t it like those weird novels you used to read?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Hey! Shut up...!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]   ​​Don’t tell me you’re still into those?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ...I’ll beat you so bad you won’t be able to spill anymore.
+    <t xml:space="preserve">[name="Ch'en"]  When we were young, we once played a game. Face, 3 points. Chest, 5 points. Waist, 2 points.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I don't know why Wei Yenwu taught us that game. I think it's useful, though.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It's because I was bullied by the other kids in school.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You were protecting Beatrix. So you got beaten up badly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You weren't the one who did it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I can subdue you in two moves now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...Just try it. You've become very competitive.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Put the sword down. You look silly holding it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Let's all do that, then. By the way, are you using that Chi Xiao to fulfil your dream of being an adventurer?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  'Good food, great wine and amazing scenery; Pretty women, good manners and great company.' Isn't it like those weird novels you used to read?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Hey! Shut up...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]   ​​Don't tell me you're still into those?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ...I'll beat you so bad you won't be able to spill anymore.
 </t>
   </si>
   <si>
@@ -3944,19 +3944,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Thank her, not me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You should be thanking that brave little rabbit and all the Infected who fought alongside her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  She was the one who braved your fire and flames to get all the way here. Amiya is the one who really saved you. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Before that... Let’s settle things between us.
+    <t xml:space="preserve">[name="Ch'en"]  Thank her, not me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You should be thanking that brave little rabbit and all the Infected who fought alongside her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  She was the one who braved your fire and flames to get all the way here. Amiya is the one who really saved you. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Before that... Let's settle things between us.
 </t>
   </si>
   <si>
@@ -3964,7 +3964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  No, Talulah. The future stretches far ahead.
+    <t xml:space="preserve">[name="Ch'en"]  No, Talulah. The future stretches far ahead.
 </t>
   </si>
   <si>
@@ -3972,7 +3972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  It’s okay, little bunny. Everybody has a past that needs to be shattered.
+    <t xml:space="preserve">[name="W"]  It's okay, little bunny. Everybody has a past that needs to be shattered.
 </t>
   </si>
   <si>
@@ -3980,7 +3980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  A girl has her ways, yeah? I’m gonna pass on answering that one. You’d probably kill me.
+    <t xml:space="preserve">[name="W"]  A girl has her ways, yeah? I'm gonna pass on answering that one. You'd probably kill me.
 </t>
   </si>
   <si>
@@ -3988,7 +3988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  You’re talking about Misha.
+    <t xml:space="preserve">[name="Amiya"]  You're talking about Misha.
 </t>
   </si>
   <si>
@@ -3996,11 +3996,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  His father told him about it before he died. He wasn’t a dumb man. He knew pretty much what Reunion was planning to do.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  But he couldn’t do anything about it. Just like how he couldn’t stop Ursus from killing his friends, and how he couldn’t keep his kids alive. Hah.
+    <t xml:space="preserve">[name="W"]  His father told him about it before he died. He wasn't a dumb man. He knew pretty much what Reunion was planning to do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  But he couldn't do anything about it. Just like how he couldn't stop Ursus from killing his friends, and how he couldn't keep his kids alive. Hah.
 </t>
   </si>
   <si>
@@ -4012,7 +4012,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Misha didn’t need to die. I got her killed back there to keep Chernobog in place. Then when I couldn’t stop Chernobog, I really regretted that one.
+    <t xml:space="preserve">[name="W"]  Misha didn't need to die. I got her killed back there to keep Chernobog in place. Then when I couldn't stop Chernobog, I really regretted that one.
 </t>
   </si>
   <si>
@@ -4020,7 +4020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  I screwed up. Right, I won’t ask for forgiveness or anything. At the time, I didn’t think I was doing anything wrong. If everyone used common sense, the world would’ve died a long time ago.
+    <t xml:space="preserve">[name="W"]  I screwed up. Right, I won't ask for forgiveness or anything. At the time, I didn't think I was doing anything wrong. If everyone used common sense, the world would've died a long time ago.
 </t>
   </si>
   <si>
@@ -4028,11 +4028,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  W, none of this will ever happen again. I won’t let you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Either you promise me, or we’ll imprison you at Rhodes Island.
+    <t xml:space="preserve">[name="Amiya"]  W, none of this will ever happen again. I won't let you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Either you promise me, or we'll imprison you at Rhodes Island.
 </t>
   </si>
   <si>
@@ -4044,7 +4044,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Oh, looks like Talulah’s all out of power. Those Arts she was forcing out of her can’t be good for her body.
+    <t xml:space="preserve">[name="W"]  Oh, looks like Talulah's all out of power. Those Arts she was forcing out of her can't be good for her body.
 </t>
   </si>
   <si>
@@ -4060,11 +4060,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  I don’t know if I’ve ever said this before. Hmm, how should I put it?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Little bunny, you’re a lot like her. 
+    <t xml:space="preserve">[name="W"]  I don't know if I've ever said this before. Hmm, how should I put it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Little bunny, you're a lot like her. 
 </t>
   </si>
   <si>
@@ -4076,7 +4076,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Hehe, I really really hope that you never have to meet anybody like me ever again. So let’s make this the last time we meet, bunnygirl.
+    <t xml:space="preserve">[name="W"]  Hehe, I really really hope that you never have to meet anybody like me ever again. So let's make this the last time we meet, bunnygirl.
 </t>
   </si>
   <si>
@@ -4084,7 +4084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"]  It stopped... Chernobog’s stopped moving!
+    <t xml:space="preserve">[name="Shieldguard"]  It stopped... Chernobog's stopped moving!
 </t>
   </si>
   <si>
@@ -4092,15 +4092,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  The enemies are retreating...? They’re routing!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Phantom Crossbowman"]  Should we chase after ‘em?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  It’s a mass rout——
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  The enemies are retreating...? They're routing!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  Should we chase after 'em?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  It's a mass rout——
 </t>
   </si>
   <si>
@@ -4108,11 +4108,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  They feel it. They’ve been abandoned!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shieldguard"]  We’ve won!
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  They feel it. They've been abandoned!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  We've won!
 </t>
   </si>
   <si>
@@ -4128,7 +4128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"]  Hooray! Little kitten! You’re amazing! We did it! 
+    <t xml:space="preserve">[name="Shieldguard"]  Hooray! Little kitten! You're amazing! We did it! 
 </t>
   </si>
   <si>
@@ -4140,31 +4140,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Ace, Scout, I think I’ve done it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think I understand now. I don’t just have family.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There’s a lot of... good people. And a lot of... gentle people.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It’s warm. Really warm.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">These warm things, maybe... I won’t forget. I shouldn’t forget. Even if it’s painful, I will... do my best to remember.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="We’ve finally arrived!", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We arrived just in time. Amiya’s done it. But...
+    <t xml:space="preserve">Ace, Scout, I think I've done it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think I understand now. I don't just have family.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's a lot of... good people. And a lot of... gentle people.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's warm. Really warm.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These warm things, maybe... I won't forget. I shouldn't forget. Even if it's painful, I will... do my best to remember.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="We've finally arrived!", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We arrived just in time. Amiya's done it. But...
 </t>
   </si>
   <si>
@@ -4172,7 +4172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  It’s really good to... see you...
+    <t xml:space="preserve">[name="Amiya"]  It's really good to... see you...
 </t>
   </si>
   <si>
